--- a/assignment_report.xlsx
+++ b/assignment_report.xlsx
@@ -280,7 +280,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">20241000012</t>
+      <t xml:space="preserve">20241000014</t>
     </r>
   </si>
   <si>
@@ -290,171 +290,216 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">PT. Mitra Teknologi Kreasi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CBJKT1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kantor Antasari I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Operations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Administrative Specialist</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Area Operation - Jakarta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dept Head</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dept Head.Area Operation - Jakarta.Kantor Antasari I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bintang Biru</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EMP-00001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Marco Keith</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">20241000015</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Admin 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Probation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">KPJKT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kantor Pusat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Finance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Accounting Management</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Financial Administrator</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dept Head.Financial Administrator.Kantor Pusat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Contract-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3 Year(s) 9 Month(s) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Human Resources</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HR Management</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Directorate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Human Resource Directorate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Head</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Head.Human Resource Directorate.Kantor Pusat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EMP-00002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Peter Johnson</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Permanent</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Director</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CEO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Director.CEO.Kantor Pusat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EMP-00003</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Andy Frederick</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">PT Bintang Biru</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">A2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CBJKT1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kantor Antasari I</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Operations</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Administrative Specialist</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Area Operation - Jakarta</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dept Head</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dept Head.Area Operation - Jakarta.Kantor Antasari I</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Bintang Biru</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EMP-00001</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Marco Keith</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Contract-2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3 Year(s) 9 Month(s) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">KPJKT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Kantor Pusat</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Human Resources</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HR Management</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Directorate</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Human Resource Directorate</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Head</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Head.Human Resource Directorate.Kantor Pusat</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EMP-00002</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Peter Johnson</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Permanent</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Director</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CEO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Director.CEO.Kantor Pusat</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EMP-00003</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Andy Frederick</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">A4</t>
     </r>
   </si>
@@ -511,11 +556,6 @@
   <si>
     <r>
       <t xml:space="preserve">Rick Mudrock</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A3</t>
     </r>
   </si>
   <si>
@@ -1146,7 +1186,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="4">
-        <v>45589.0</v>
+        <v>45590.0</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>36</v>
@@ -1158,26 +1198,26 @@
         <v>38</v>
       </c>
       <c r="G5" s="4">
-        <v>45589.0</v>
+        <v>45590.0</v>
       </c>
       <c r="H5" s="4">
-        <v>45589.0</v>
+        <v>45590.0</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="J5" s="4">
-        <v>46393.0</v>
+        <v>45470.0</v>
       </c>
       <c r="K5" s="4">
-        <v>46393.0</v>
+        <v>45835.0</v>
       </c>
       <c r="L5" s="3" t="s"/>
       <c r="M5" s="3" t="s"/>
       <c r="N5" s="3" t="s"/>
       <c r="O5" s="3" t="s"/>
       <c r="P5" s="4">
-        <v>45589.0</v>
+        <v>45590.0</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>36</v>
@@ -1234,13 +1274,13 @@
     </row>
     <row r="6" customHeight="1" ht="88">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6" s="4">
-        <v>45575.0</v>
+        <v>45590.0</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>36</v>
@@ -1249,65 +1289,65 @@
         <v>37</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G6" s="4">
-        <v>44197.0</v>
+        <v>45590.0</v>
       </c>
       <c r="H6" s="4">
-        <v>44197.0</v>
+        <v>45590.0</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="J6" s="4">
-        <v>44197.0</v>
+        <v>45552.0</v>
       </c>
       <c r="K6" s="4">
-        <v>46023.0</v>
+        <v>45643.0</v>
       </c>
       <c r="L6" s="3" t="s"/>
       <c r="M6" s="3" t="s"/>
       <c r="N6" s="3" t="s"/>
       <c r="O6" s="3" t="s"/>
       <c r="P6" s="4">
-        <v>44197.0</v>
+        <v>45590.0</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="Y6" s="3" t="s">
         <v>76</v>
       </c>
       <c r="Z6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB6" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>51</v>
@@ -1317,24 +1357,20 @@
       </c>
       <c r="AE6" s="5" t="s"/>
       <c r="AF6" s="5" t="s"/>
-      <c r="AG6" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="AG6" s="5" t="s"/>
       <c r="AH6" s="5" t="s"/>
-      <c r="AI6" s="5" t="s">
-        <v>81</v>
-      </c>
+      <c r="AI6" s="5" t="s"/>
       <c r="AJ6" s="5" t="s"/>
     </row>
     <row r="7" customHeight="1" ht="88">
       <c r="A7" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C7" s="4">
-        <v>44197.0</v>
+        <v>45590.0</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>36</v>
@@ -1343,7 +1379,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G7" s="4">
         <v>44197.0</v>
@@ -1352,10 +1388,14 @@
         <v>44197.0</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="J7" s="4">
+        <v>44197.0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>45627.0</v>
+      </c>
       <c r="L7" s="3" t="s"/>
       <c r="M7" s="3" t="s"/>
       <c r="N7" s="3" t="s"/>
@@ -1367,37 +1407,37 @@
         <v>36</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="X7" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="Y7" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>51</v>
@@ -1407,29 +1447,33 @@
       </c>
       <c r="AE7" s="5" t="s"/>
       <c r="AF7" s="5" t="s"/>
-      <c r="AG7" s="5" t="s"/>
+      <c r="AG7" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="AH7" s="5" t="s"/>
-      <c r="AI7" s="5" t="s"/>
+      <c r="AI7" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="AJ7" s="5" t="s"/>
     </row>
     <row r="8" customHeight="1" ht="88">
       <c r="A8" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C8" s="4">
-        <v>45575.0</v>
+        <v>44197.0</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G8" s="4">
         <v>44197.0</v>
@@ -1438,11 +1482,9 @@
         <v>44197.0</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="4">
-        <v>43135.0</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="3" t="s"/>
       <c r="M8" s="3" t="s"/>
@@ -1455,40 +1497,40 @@
         <v>36</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AD8" s="3" t="s">
         <v>52</v>
@@ -1502,10 +1544,10 @@
     </row>
     <row r="9" customHeight="1" ht="88">
       <c r="A9" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C9" s="4">
         <v>45575.0</v>
@@ -1514,10 +1556,10 @@
         <v>36</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="G9" s="4">
         <v>44197.0</v>
@@ -1526,14 +1568,12 @@
         <v>44197.0</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J9" s="4">
-        <v>45445.0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>45810.0</v>
-      </c>
+        <v>43135.0</v>
+      </c>
+      <c r="K9" s="4"/>
       <c r="L9" s="3" t="s"/>
       <c r="M9" s="3" t="s"/>
       <c r="N9" s="3" t="s"/>
@@ -1545,19 +1585,19 @@
         <v>36</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>45</v>
@@ -1566,16 +1606,16 @@
         <v>46</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>65</v>
@@ -1592,19 +1632,19 @@
     </row>
     <row r="10" customHeight="1" ht="88">
       <c r="A10" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C10" s="4">
-        <v>45575.0</v>
+        <v>45590.0</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>38</v>
@@ -1616,13 +1656,13 @@
         <v>44197.0</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J10" s="4">
-        <v>44197.0</v>
+        <v>45445.0</v>
       </c>
       <c r="K10" s="4">
-        <v>44562.0</v>
+        <v>45638.0</v>
       </c>
       <c r="L10" s="3" t="s"/>
       <c r="M10" s="3" t="s"/>
@@ -1635,7 +1675,7 @@
         <v>36</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>57</v>
@@ -1644,31 +1684,31 @@
         <v>58</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AD10" s="3" t="s">
         <v>52</v>
@@ -1682,22 +1722,22 @@
     </row>
     <row r="11" customHeight="1" ht="88">
       <c r="A11" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C11" s="4">
-        <v>45575.0</v>
+        <v>45590.0</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G11" s="4">
         <v>44197.0</v>
@@ -1706,13 +1746,13 @@
         <v>44197.0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J11" s="4">
         <v>44197.0</v>
       </c>
       <c r="K11" s="4">
-        <v>47849.0</v>
+        <v>45636.0</v>
       </c>
       <c r="L11" s="3" t="s"/>
       <c r="M11" s="3" t="s"/>
@@ -1725,7 +1765,7 @@
         <v>36</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="S11" s="3" t="s">
         <v>57</v>
@@ -1734,31 +1774,31 @@
         <v>58</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AD11" s="3" t="s">
         <v>52</v>
@@ -1772,22 +1812,22 @@
     </row>
     <row r="12" customHeight="1" ht="88">
       <c r="A12" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C12" s="4">
-        <v>44197.0</v>
+        <v>45590.0</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G12" s="4">
         <v>44197.0</v>
@@ -1796,10 +1836,14 @@
         <v>44197.0</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="J12" s="4">
+        <v>44197.0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>45292.0</v>
+      </c>
       <c r="L12" s="3" t="s"/>
       <c r="M12" s="3" t="s"/>
       <c r="N12" s="3" t="s"/>
@@ -1811,7 +1855,7 @@
         <v>36</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="S12" s="3" t="s">
         <v>57</v>
@@ -1820,31 +1864,31 @@
         <v>58</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AD12" s="3" t="s">
         <v>52</v>
@@ -1858,10 +1902,10 @@
     </row>
     <row r="13" customHeight="1" ht="88">
       <c r="A13" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C13" s="4">
         <v>44197.0</v>
@@ -1873,7 +1917,7 @@
         <v>37</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G13" s="4">
         <v>44197.0</v>
@@ -1882,7 +1926,7 @@
         <v>44197.0</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1897,19 +1941,19 @@
         <v>36</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="W13" s="3" t="s">
         <v>45</v>
@@ -1918,16 +1962,16 @@
         <v>46</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AC13" s="3" t="s">
         <v>51</v>
@@ -1944,10 +1988,10 @@
     </row>
     <row r="14" customHeight="1" ht="88">
       <c r="A14" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C14" s="4">
         <v>44197.0</v>
@@ -1959,7 +2003,7 @@
         <v>37</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G14" s="4">
         <v>44197.0</v>
@@ -1968,7 +2012,7 @@
         <v>44197.0</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1983,37 +2027,37 @@
         <v>36</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>51</v>
@@ -2030,22 +2074,22 @@
     </row>
     <row r="15" customHeight="1" ht="88">
       <c r="A15" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C15" s="4">
-        <v>45575.0</v>
+        <v>44197.0</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="G15" s="4">
         <v>44197.0</v>
@@ -2054,14 +2098,10 @@
         <v>44197.0</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="4">
-        <v>44197.0</v>
-      </c>
-      <c r="K15" s="4">
-        <v>44927.0</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="3" t="s"/>
       <c r="M15" s="3" t="s"/>
       <c r="N15" s="3" t="s"/>
@@ -2073,40 +2113,40 @@
         <v>36</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="X15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="AB15" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AD15" s="3" t="s">
         <v>52</v>
@@ -2118,43 +2158,133 @@
       <c r="AI15" s="5" t="s"/>
       <c r="AJ15" s="5" t="s"/>
     </row>
-    <row r="16" customHeight="1" ht="36">
-      <c r="A16" s="6" t="s"/>
-      <c r="B16" s="6" t="s"/>
-      <c r="C16" s="6" t="s"/>
-      <c r="D16" s="6" t="s"/>
-      <c r="E16" s="6" t="s"/>
-      <c r="F16" s="6" t="s"/>
-      <c r="G16" s="6" t="s"/>
-      <c r="H16" s="6" t="s"/>
-      <c r="I16" s="6" t="s"/>
-      <c r="J16" s="6" t="s"/>
-      <c r="K16" s="6" t="s"/>
-      <c r="L16" s="6" t="s"/>
-      <c r="M16" s="6" t="s"/>
-      <c r="N16" s="6" t="s"/>
-      <c r="O16" s="6" t="s"/>
-      <c r="P16" s="6" t="s"/>
-      <c r="Q16" s="6" t="s"/>
-      <c r="R16" s="6" t="s"/>
-      <c r="S16" s="6" t="s"/>
-      <c r="T16" s="6" t="s"/>
-      <c r="U16" s="6" t="s"/>
-      <c r="V16" s="6" t="s"/>
-      <c r="W16" s="6" t="s"/>
-      <c r="X16" s="6" t="s"/>
-      <c r="Y16" s="6" t="s"/>
-      <c r="Z16" s="6" t="s"/>
-      <c r="AA16" s="6" t="s"/>
-      <c r="AB16" s="6" t="s"/>
-      <c r="AC16" s="6" t="s"/>
-      <c r="AD16" s="6" t="s"/>
-      <c r="AE16" s="6" t="s"/>
-      <c r="AF16" s="6" t="s"/>
-      <c r="AG16" s="6" t="s"/>
-      <c r="AH16" s="6" t="s"/>
-      <c r="AI16" s="6" t="s"/>
-      <c r="AJ16" s="6" t="s"/>
+    <row r="16" customHeight="1" ht="88">
+      <c r="A16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="4">
+        <v>45590.0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="4">
+        <v>44197.0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>44197.0</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="4">
+        <v>44197.0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>45644.0</v>
+      </c>
+      <c r="L16" s="3" t="s"/>
+      <c r="M16" s="3" t="s"/>
+      <c r="N16" s="3" t="s"/>
+      <c r="O16" s="3" t="s"/>
+      <c r="P16" s="4">
+        <v>44197.0</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE16" s="5" t="s"/>
+      <c r="AF16" s="5" t="s"/>
+      <c r="AG16" s="5" t="s"/>
+      <c r="AH16" s="5" t="s"/>
+      <c r="AI16" s="5" t="s"/>
+      <c r="AJ16" s="5" t="s"/>
+    </row>
+    <row r="17" customHeight="1" ht="36">
+      <c r="A17" s="6" t="s"/>
+      <c r="B17" s="6" t="s"/>
+      <c r="C17" s="6" t="s"/>
+      <c r="D17" s="6" t="s"/>
+      <c r="E17" s="6" t="s"/>
+      <c r="F17" s="6" t="s"/>
+      <c r="G17" s="6" t="s"/>
+      <c r="H17" s="6" t="s"/>
+      <c r="I17" s="6" t="s"/>
+      <c r="J17" s="6" t="s"/>
+      <c r="K17" s="6" t="s"/>
+      <c r="L17" s="6" t="s"/>
+      <c r="M17" s="6" t="s"/>
+      <c r="N17" s="6" t="s"/>
+      <c r="O17" s="6" t="s"/>
+      <c r="P17" s="6" t="s"/>
+      <c r="Q17" s="6" t="s"/>
+      <c r="R17" s="6" t="s"/>
+      <c r="S17" s="6" t="s"/>
+      <c r="T17" s="6" t="s"/>
+      <c r="U17" s="6" t="s"/>
+      <c r="V17" s="6" t="s"/>
+      <c r="W17" s="6" t="s"/>
+      <c r="X17" s="6" t="s"/>
+      <c r="Y17" s="6" t="s"/>
+      <c r="Z17" s="6" t="s"/>
+      <c r="AA17" s="6" t="s"/>
+      <c r="AB17" s="6" t="s"/>
+      <c r="AC17" s="6" t="s"/>
+      <c r="AD17" s="6" t="s"/>
+      <c r="AE17" s="6" t="s"/>
+      <c r="AF17" s="6" t="s"/>
+      <c r="AG17" s="6" t="s"/>
+      <c r="AH17" s="6" t="s"/>
+      <c r="AI17" s="6" t="s"/>
+      <c r="AJ17" s="6" t="s"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2191,6 +2321,8 @@
     <mergeCell ref="AI14:AJ14"/>
     <mergeCell ref="AG15:AH15"/>
     <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
   </mergeCells>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.00" header="0.0" footer="0.0"/>
   <pageSetup orientation="landscape"/>
